--- a/Modelagem/Pasta1.xlsx
+++ b/Modelagem/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Documents\Bianca\SP-Medical-Group\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D686B0-8D7A-4AA7-831E-73A43AA5CFA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF36E809-35C8-4C57-A763-F1FB56593C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{5AE61286-49E1-47C2-BF4C-6AB01BEE10C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -171,18 +171,6 @@
     <t>luiz182</t>
   </si>
   <si>
-    <t>Rua Joaõ Elias Calache 188</t>
-  </si>
-  <si>
-    <t>Rua Charles Mion 287</t>
-  </si>
-  <si>
-    <t>Av. Francisco Matarazzo 10530</t>
-  </si>
-  <si>
-    <t>Rua Rosa Alameda 365</t>
-  </si>
-  <si>
     <t>93567-0702</t>
   </si>
   <si>
@@ -259,13 +247,208 @@
   </si>
   <si>
     <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Osasco</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes</t>
+  </si>
+  <si>
+    <t>Caieras</t>
+  </si>
+  <si>
+    <t>Jardim das Flores</t>
+  </si>
+  <si>
+    <t>Pinheiros</t>
+  </si>
+  <si>
+    <t>Jaraguá</t>
+  </si>
+  <si>
+    <t>Jardim São Francisco</t>
+  </si>
+  <si>
+    <t>Rua das Pedras</t>
+  </si>
+  <si>
+    <t>Av. Alexio Jafet</t>
+  </si>
+  <si>
+    <t>Francisco Urizzi</t>
+  </si>
+  <si>
+    <t>João Avelar</t>
+  </si>
+  <si>
+    <t>Miguel Candido</t>
+  </si>
+  <si>
+    <t>clinica</t>
+  </si>
+  <si>
+    <t>idClinica</t>
+  </si>
+  <si>
+    <t>nomeFantasia</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>razaoSocial</t>
+  </si>
+  <si>
+    <t>horaAbertura</t>
+  </si>
+  <si>
+    <t>horaFechamento</t>
+  </si>
+  <si>
+    <t>45783-823</t>
+  </si>
+  <si>
+    <t>21638-367</t>
+  </si>
+  <si>
+    <t>26328-273</t>
+  </si>
+  <si>
+    <t>21342-490</t>
+  </si>
+  <si>
+    <t>95739-274</t>
+  </si>
+  <si>
+    <t>36583-375</t>
+  </si>
+  <si>
+    <t>Suzano</t>
+  </si>
+  <si>
+    <t>Diadema</t>
+  </si>
+  <si>
+    <t>Perus</t>
+  </si>
+  <si>
+    <t>Vila Figueira</t>
+  </si>
+  <si>
+    <t>Vila Natal</t>
+  </si>
+  <si>
+    <t>Vila Mogi Moderno</t>
+  </si>
+  <si>
+    <t>Jardim Elisa</t>
+  </si>
+  <si>
+    <t>Pestana</t>
+  </si>
+  <si>
+    <t>Rua da Ladeira</t>
+  </si>
+  <si>
+    <t>Av. Dos Santos</t>
+  </si>
+  <si>
+    <t>Rua Charles Mion</t>
+  </si>
+  <si>
+    <t>Av. dos Bandeirantes</t>
+  </si>
+  <si>
+    <t>Rua. Jaruga</t>
+  </si>
+  <si>
+    <t>Consolação</t>
+  </si>
+  <si>
+    <t>Av. Paulista</t>
+  </si>
+  <si>
+    <t>87.293.710./0927-73</t>
+  </si>
+  <si>
+    <t>SP Medical Group</t>
+  </si>
+  <si>
+    <t>Clínica Paulista</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>idSituacao</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cancelada</t>
+  </si>
+  <si>
+    <t>confirmada</t>
+  </si>
+  <si>
+    <t>consulta</t>
+  </si>
+  <si>
+    <t>idConsulta</t>
+  </si>
+  <si>
+    <t>idMedico</t>
+  </si>
+  <si>
+    <t>dataConsulta</t>
+  </si>
+  <si>
+    <t>descricaoConsulta</t>
+  </si>
+  <si>
+    <t>especialidade</t>
+  </si>
+  <si>
+    <t>idEspecialidade</t>
+  </si>
+  <si>
+    <t>nomeEspecialidade</t>
+  </si>
+  <si>
+    <t>pediatria</t>
+  </si>
+  <si>
+    <t>odontologia</t>
+  </si>
+  <si>
+    <t>gastrenterologia</t>
+  </si>
+  <si>
+    <t>infectologia</t>
+  </si>
+  <si>
+    <t>dermatologia</t>
+  </si>
+  <si>
+    <t>medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idUsuario </t>
+  </si>
+  <si>
+    <t>nomeMedico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saulo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,13 +464,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDCDE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC71F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDF9E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99DC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F494"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -303,21 +560,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -325,6 +645,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF6F494"/>
+      <color rgb="FFF99DC0"/>
+      <color rgb="FFBDF9E2"/>
+      <color rgb="FFDC71F5"/>
+      <color rgb="FFEDCDE9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,512 +962,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA2ADB-0E5F-4FA0-A5A5-8131E109B888}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="12">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>2</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="30">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="30">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>4</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>5</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="30">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>6</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>7</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="30">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>8</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="30">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>9</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="30">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>10</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="30">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>11</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="15">
+        <v>35066</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B37" s="13">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="15">
+        <v>35024</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="B38" s="13">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="15">
+        <v>35789</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B39" s="13">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="15">
+        <v>37149</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16">
+        <v>7</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>1</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>2</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>1</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>2</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>3</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>4</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B56" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>1</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23">
+        <v>1</v>
+      </c>
+      <c r="D60" s="23">
+        <v>3</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>2</v>
+      </c>
+      <c r="B61" s="23">
+        <v>2</v>
+      </c>
+      <c r="C61" s="23">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <v>4</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>3</v>
+      </c>
+      <c r="B62" s="23">
+        <v>8</v>
+      </c>
+      <c r="C62" s="23">
+        <v>1</v>
+      </c>
+      <c r="D62" s="23">
+        <v>1</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>4</v>
+      </c>
+      <c r="B63" s="23">
+        <v>9</v>
+      </c>
+      <c r="C63" s="23">
+        <v>1</v>
+      </c>
+      <c r="D63" s="23">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="E63" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>5</v>
+      </c>
+      <c r="B64" s="23">
+        <v>10</v>
+      </c>
+      <c r="C64" s="23">
+        <v>1</v>
+      </c>
+      <c r="D64" s="23">
+        <v>2</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="C67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>1</v>
+      </c>
+      <c r="B68" s="25">
+        <v>2</v>
+      </c>
+      <c r="C68" s="25">
+        <v>2</v>
+      </c>
+      <c r="D68" s="25">
+        <v>1</v>
+      </c>
+      <c r="E68" s="26">
+        <v>44449</v>
+      </c>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>2</v>
+      </c>
+      <c r="B69" s="25">
+        <v>4</v>
+      </c>
+      <c r="C69" s="25">
+        <v>5</v>
+      </c>
+      <c r="D69" s="25">
+        <v>1</v>
+      </c>
+      <c r="E69" s="26">
+        <v>44435</v>
+      </c>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
         <v>3</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5">
-        <v>35066</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B70" s="25">
+        <v>1</v>
+      </c>
+      <c r="C70" s="25">
+        <v>1</v>
+      </c>
+      <c r="D70" s="25">
         <v>2</v>
       </c>
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="5">
-        <v>35024</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="E70" s="26">
+        <v>44432</v>
+      </c>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>4</v>
+      </c>
+      <c r="B71" s="25">
         <v>3</v>
       </c>
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="5">
-        <v>35789</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="C71" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5">
-        <v>37149</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" t="s">
-        <v>63</v>
-      </c>
+      <c r="D71" s="25">
+        <v>1</v>
+      </c>
+      <c r="E71" s="26">
+        <v>44444</v>
+      </c>
+      <c r="F71" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{5678B1CD-4AA6-41C3-9C72-8018EB5CEBD5}"/>
